--- a/Stevens_Spring_2022/E-355-D/Labs/LAB4_355A_Alex_Gaskins.xlsx
+++ b/Stevens_Spring_2022/E-355-D/Labs/LAB4_355A_Alex_Gaskins.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/E-355-D/Labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FADFEC-86D8-5644-8E4C-C4EA8A397CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008323FB-E334-C54D-A41E-70E276B04960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,6 +622,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="8" xfId="40" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="40" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -630,63 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="40" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="8" xfId="40" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1167,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97801B0-3A60-CC43-8DC5-770E76D6AE38}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -1187,59 +1187,59 @@
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="37">
         <v>288000</v>
       </c>
@@ -1247,11 +1247,11 @@
       <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="37">
         <v>14750</v>
       </c>
@@ -1259,21 +1259,21 @@
       <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="37">
         <v>534500</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="37">
         <v>48000</v>
       </c>
@@ -1281,34 +1281,34 @@
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="37">
         <v>265000</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="66">
+      <c r="C11" s="63"/>
+      <c r="D11" s="47">
         <v>612500</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="65"/>
-      <c r="D12" s="67">
+      <c r="D12" s="48">
         <f>SUM(D6:D11)</f>
         <v>1762750</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1345,11 +1345,11 @@
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>15</v>
@@ -1369,7 +1369,7 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1416,16 +1416,16 @@
       <c r="A23" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
@@ -1530,18 +1530,18 @@
       <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="20"/>
       <c r="C29" s="44" t="s">
         <v>33</v>
@@ -1555,7 +1555,7 @@
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="21" t="s">
         <v>36</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="44" t="s">
         <v>37</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="21" t="s">
         <v>38</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="26" t="s">
@@ -1682,7 +1682,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="26" t="s">
         <v>41</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="26" t="s">
         <v>42</v>
       </c>
@@ -1737,7 +1737,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="26" t="s">
         <v>43</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="26" t="s">
         <v>44</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="66" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="26" t="s">
@@ -1819,7 +1819,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="26" t="s">
         <v>46</v>
       </c>
@@ -1846,7 +1846,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="26" t="s">
         <v>47</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="26" t="s">
         <v>48</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="26" t="s">
         <v>49</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="26" t="s">
         <v>50</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="60" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="29" t="s">
@@ -1999,7 +1999,7 @@
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="6"/>
       <c r="C51" s="17"/>
       <c r="D51" s="12"/>
@@ -2009,22 +2009,22 @@
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
-      <c r="B52" s="52" t="s">
+      <c r="A52" s="60"/>
+      <c r="B52" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52" t="s">
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="16"/>
       <c r="C53" s="3" t="s">
         <v>39</v>
@@ -2044,10 +2044,10 @@
       <c r="H53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="52"/>
+      <c r="I53" s="61"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="31" t="s">
         <v>55</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="31" t="s">
         <v>56</v>
       </c>
@@ -2124,18 +2124,18 @@
       <c r="A60" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
       <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2149,6 +2149,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
@@ -2165,14 +2173,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
